--- a/data/inputs.xlsx
+++ b/data/inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813AE522-15FF-48FB-8DB5-D0C348DAD30C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965F45BB-E9F2-4EC4-B2BD-3D27723CC4A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{320D0BAC-4B29-4FF6-9D3E-29DC1831E97B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{320D0BAC-4B29-4FF6-9D3E-29DC1831E97B}"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="corr" sheetId="3" r:id="rId5"/>
     <sheet name="weights" sheetId="6" r:id="rId6"/>
     <sheet name="bnds" sheetId="11" r:id="rId7"/>
+    <sheet name="ret_assump" sheetId="12" r:id="rId8"/>
+    <sheet name="mkt_factor_prem" sheetId="13" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="Covariance">'[1]Covariance Matrix'!$G$7:$Z$26</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="57">
   <si>
     <t>Fundamental Factor Group</t>
   </si>
@@ -198,6 +200,30 @@
   </si>
   <si>
     <t>Upper</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russell 2000 </t>
+  </si>
+  <si>
+    <t>Market Factor Premium</t>
+  </si>
+  <si>
+    <t>TSY_MKT_RET</t>
+  </si>
+  <si>
+    <t>MKT_RISK_PREM</t>
+  </si>
+  <si>
+    <t>FI_TERM_PREM</t>
+  </si>
+  <si>
+    <t>BOND_OAS_CR</t>
   </si>
 </sst>
 </file>
@@ -3030,7 +3056,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5109,8 +5135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB82A8F-F753-4D61-8C6B-23BC78CD4AA7}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,4 +5336,175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2680E847-5D2B-4C25-916C-699E38D9C40C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004C5978-1523-45E8-9638-ADDEC870128D}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>